--- a/public/template/workers.template.xlsx
+++ b/public/template/workers.template.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1221\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
-    <sheet name="Askarlar" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="123">
   <si>
     <t>Batalon</t>
   </si>
@@ -25,28 +30,364 @@
     <t>Karta_raqam</t>
   </si>
   <si>
-    <t>84007</t>
-  </si>
-  <si>
-    <t>Asqarov Sardorjon</t>
-  </si>
-  <si>
-    <t>Asqarov Jamshid</t>
-  </si>
-  <si>
-    <t>98177</t>
-  </si>
-  <si>
-    <t>8600 1234 5678 9991</t>
-  </si>
-  <si>
-    <t>8600 1111 5678 9992</t>
-  </si>
-  <si>
-    <t>8600 1112 5678 9929</t>
-  </si>
-  <si>
-    <t>8600 3332 5678 9997</t>
+    <t>Xisob_raqam</t>
+  </si>
+  <si>
+    <t>Asqarov Avazjon</t>
+  </si>
+  <si>
+    <t>Abdullayev Umid</t>
+  </si>
+  <si>
+    <t>Rasulov Otabek</t>
+  </si>
+  <si>
+    <t>Rustamov Aziz</t>
+  </si>
+  <si>
+    <t>Nazarov Sherali</t>
+  </si>
+  <si>
+    <t>Mahkamov Shokir</t>
+  </si>
+  <si>
+    <t>Akbarov Nodir</t>
+  </si>
+  <si>
+    <t>Xudoyberdiyev Shohrux</t>
+  </si>
+  <si>
+    <t>Alimov Bobur</t>
+  </si>
+  <si>
+    <t>Ergashev Javlon</t>
+  </si>
+  <si>
+    <t>Yuldashev Diyor</t>
+  </si>
+  <si>
+    <t>Davlatov Jasur</t>
+  </si>
+  <si>
+    <t>Mamatov Shukur</t>
+  </si>
+  <si>
+    <t>Saidov Sherzod</t>
+  </si>
+  <si>
+    <t>Ismoilov Bahodir</t>
+  </si>
+  <si>
+    <t>Karimov Dilshod</t>
+  </si>
+  <si>
+    <t>Olimov Mirjalol</t>
+  </si>
+  <si>
+    <t>Turgunov Farrux</t>
+  </si>
+  <si>
+    <t>Sattorov Orifjon</t>
+  </si>
+  <si>
+    <t>8622702459987304</t>
+  </si>
+  <si>
+    <t>8622477810585963</t>
+  </si>
+  <si>
+    <t>8622598922621215</t>
+  </si>
+  <si>
+    <t>8622252892025563</t>
+  </si>
+  <si>
+    <t>8622258464710780</t>
+  </si>
+  <si>
+    <t>8622941761375550</t>
+  </si>
+  <si>
+    <t>8622877766714305</t>
+  </si>
+  <si>
+    <t>8622664855632315</t>
+  </si>
+  <si>
+    <t>8622416580811199</t>
+  </si>
+  <si>
+    <t>8622568222124959</t>
+  </si>
+  <si>
+    <t>8622843685778815</t>
+  </si>
+  <si>
+    <t>8622791925047178</t>
+  </si>
+  <si>
+    <t>8622753648651806</t>
+  </si>
+  <si>
+    <t>8622338064309257</t>
+  </si>
+  <si>
+    <t>8622263530504512</t>
+  </si>
+  <si>
+    <t>8622542902889680</t>
+  </si>
+  <si>
+    <t>8622659755128824</t>
+  </si>
+  <si>
+    <t>8622957430957599</t>
+  </si>
+  <si>
+    <t>8622365712927495</t>
+  </si>
+  <si>
+    <t>8622776267499983</t>
+  </si>
+  <si>
+    <t>8622496170280177</t>
+  </si>
+  <si>
+    <t>8622325297474580</t>
+  </si>
+  <si>
+    <t>8622623259038773</t>
+  </si>
+  <si>
+    <t>8622302237093531</t>
+  </si>
+  <si>
+    <t>8622336069458464</t>
+  </si>
+  <si>
+    <t>8622697948119635</t>
+  </si>
+  <si>
+    <t>8622184157743054</t>
+  </si>
+  <si>
+    <t>8622476612927483</t>
+  </si>
+  <si>
+    <t>8622337144823521</t>
+  </si>
+  <si>
+    <t>8622346468609860</t>
+  </si>
+  <si>
+    <t>8622385879196661</t>
+  </si>
+  <si>
+    <t>8622300833096904</t>
+  </si>
+  <si>
+    <t>8622771823890749</t>
+  </si>
+  <si>
+    <t>8622803703669350</t>
+  </si>
+  <si>
+    <t>8622382275801670</t>
+  </si>
+  <si>
+    <t>8622307736137556</t>
+  </si>
+  <si>
+    <t>8622203642884672</t>
+  </si>
+  <si>
+    <t>8622683156645575</t>
+  </si>
+  <si>
+    <t>8622274529121867</t>
+  </si>
+  <si>
+    <t>8622451284863100</t>
+  </si>
+  <si>
+    <t>8622599966774047</t>
+  </si>
+  <si>
+    <t>8622840833110933</t>
+  </si>
+  <si>
+    <t>8622553888040261</t>
+  </si>
+  <si>
+    <t>8622552743610613</t>
+  </si>
+  <si>
+    <t>8622128253739574</t>
+  </si>
+  <si>
+    <t>8622820962883482</t>
+  </si>
+  <si>
+    <t>8622306310475903</t>
+  </si>
+  <si>
+    <t>8622888114416864</t>
+  </si>
+  <si>
+    <t>8622603845360413</t>
+  </si>
+  <si>
+    <t>8622188879740628</t>
+  </si>
+  <si>
+    <t>86227236815143119962</t>
+  </si>
+  <si>
+    <t>86222382312137381629</t>
+  </si>
+  <si>
+    <t>86224365687382334812</t>
+  </si>
+  <si>
+    <t>86221910041415520599</t>
+  </si>
+  <si>
+    <t>86228052238072841538</t>
+  </si>
+  <si>
+    <t>86224170473877097346</t>
+  </si>
+  <si>
+    <t>86221352694536476159</t>
+  </si>
+  <si>
+    <t>86226579715067692226</t>
+  </si>
+  <si>
+    <t>86228743121030557825</t>
+  </si>
+  <si>
+    <t>86223261553729683098</t>
+  </si>
+  <si>
+    <t>86221576079078100675</t>
+  </si>
+  <si>
+    <t>86229374423742695489</t>
+  </si>
+  <si>
+    <t>86224307283226411505</t>
+  </si>
+  <si>
+    <t>86227676529710773173</t>
+  </si>
+  <si>
+    <t>86229555471481507925</t>
+  </si>
+  <si>
+    <t>86227630517969338230</t>
+  </si>
+  <si>
+    <t>86227255214911967922</t>
+  </si>
+  <si>
+    <t>86221780300367135452</t>
+  </si>
+  <si>
+    <t>86227050638843020252</t>
+  </si>
+  <si>
+    <t>86223014327543722826</t>
+  </si>
+  <si>
+    <t>86229017316000973300</t>
+  </si>
+  <si>
+    <t>86222821984347542895</t>
+  </si>
+  <si>
+    <t>86228251969870671245</t>
+  </si>
+  <si>
+    <t>86223475822320605771</t>
+  </si>
+  <si>
+    <t>86225778970662238645</t>
+  </si>
+  <si>
+    <t>86225105549056139232</t>
+  </si>
+  <si>
+    <t>86224623991499608021</t>
+  </si>
+  <si>
+    <t>86229254698624956023</t>
+  </si>
+  <si>
+    <t>86222473956511540725</t>
+  </si>
+  <si>
+    <t>86228907867599529656</t>
+  </si>
+  <si>
+    <t>86227547376905016661</t>
+  </si>
+  <si>
+    <t>86225611859171757652</t>
+  </si>
+  <si>
+    <t>86221919061782868532</t>
+  </si>
+  <si>
+    <t>86224290435038786326</t>
+  </si>
+  <si>
+    <t>86221718835033386134</t>
+  </si>
+  <si>
+    <t>86221584980752820316</t>
+  </si>
+  <si>
+    <t>86221678523765728734</t>
+  </si>
+  <si>
+    <t>86229884145113132367</t>
+  </si>
+  <si>
+    <t>86221986967954821725</t>
+  </si>
+  <si>
+    <t>86224719689851418822</t>
+  </si>
+  <si>
+    <t>86223411882910613207</t>
+  </si>
+  <si>
+    <t>86226582614036136206</t>
+  </si>
+  <si>
+    <t>86226808931669523344</t>
+  </si>
+  <si>
+    <t>86224502603561279968</t>
+  </si>
+  <si>
+    <t>86227361459324712842</t>
+  </si>
+  <si>
+    <t>86227519540620822409</t>
+  </si>
+  <si>
+    <t>86222297538006027147</t>
+  </si>
+  <si>
+    <t>86225422386776959493</t>
+  </si>
+  <si>
+    <t>86228263307275250572</t>
+  </si>
+  <si>
+    <t>86221751342990338384</t>
   </si>
 </sst>
 </file>
@@ -64,20 +405,18 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -90,16 +429,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -107,23 +446,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -136,9 +469,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -176,9 +509,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,7 +546,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,7 +581,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -280,16 +613,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -411,122 +748,742 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>81109</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>81109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>81109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>81109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>81109</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>81109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>81109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>81109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>81109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>81109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>81109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>81109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>81109</v>
+      </c>
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>81109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>81109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>81109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>81109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>81109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>81109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>81109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>81109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>81109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>81109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>81109</v>
+      </c>
+      <c r="B25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>81109</v>
+      </c>
+      <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>81109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>81109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>81109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>81109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>81109</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>81109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>81109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>81109</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>81109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>81109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>81109</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>81109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>81109</v>
+      </c>
+      <c r="B39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>81109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>81109</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>81109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>81109</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>81109</v>
+      </c>
+      <c r="B44" t="s">
         <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>81109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>81109</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>81109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>81109</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>81109</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>81109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>81109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/public/template/workers.template.xlsx
+++ b/public/template/workers.template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1221\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gvardiyaV2\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>81109</v>
+        <v>84000</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
